--- a/reports/corpus_wicaksono-unigram_trigram-fold-1.xlsx
+++ b/reports/corpus_wicaksono-unigram_trigram-fold-1.xlsx
@@ -592,94 +592,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9888888888888889</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9766666666666667</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.984375</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="H2" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8795731707317073</v>
+        <v>0.9923780487804879</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8616352201257862</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8649706457925636</v>
+        <v>0.9921722113502935</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4</v>
+        <v>0.7769230769230769</v>
       </c>
       <c r="N2" t="n">
-        <v>0.75</v>
+        <v>0.9910714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9938476100331283</v>
+        <v>0.9824893516327496</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.392156862745098</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2813688212927757</v>
+        <v>0.4828897338403042</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5621621621621622</v>
+        <v>0.8810810810810811</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7578947368421053</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3485714285714286</v>
+        <v>0.7542857142857143</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.287593984962406</v>
+        <v>0.7048872180451128</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7672868217054264</v>
+        <v>0.896124031007752</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5536013186426556</v>
+        <v>0.8174158062629144</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.8943702811756252</v>
+        <v>0.9276889179627212</v>
       </c>
     </row>
     <row r="3">
@@ -692,58 +692,58 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.984375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9984662576687117</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L3" t="n">
-        <v>0.973568281938326</v>
+        <v>0.9787644787644788</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9483568075117371</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.9823008849557522</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5905511811023622</v>
+        <v>0.7789868667917449</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="R3" t="n">
-        <v>0.925</v>
+        <v>0.8912280701754386</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -758,25 +758,25 @@
         <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9838709677419355</v>
+        <v>0.9924812030075187</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9807692307692307</v>
+        <v>0.97911227154047</v>
       </c>
       <c r="AB3" t="n">
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7672868217054264</v>
+        <v>0.896124031007752</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8210748476339039</v>
+        <v>0.8790324017184679</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.7672868217054264</v>
+        <v>0.896124031007752</v>
       </c>
     </row>
     <row r="4">
@@ -786,94 +786,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9944134078212291</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.988195615514334</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.946236559139785</v>
+        <v>0.984375</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9322033898305084</v>
+        <v>0.9838709677419354</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9359286293592863</v>
+        <v>0.9954128440366974</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9256756756756757</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9160621761658031</v>
+        <v>0.9854227405247813</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5591397849462365</v>
+        <v>0.854122621564482</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8333333333333333</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7408714058916916</v>
+        <v>0.8689828380075346</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.547945205479452</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4314868804664723</v>
+        <v>0.626387176325524</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8444444444444443</v>
+        <v>0.9902912621359222</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7197231833910035</v>
+        <v>0.9367816091954023</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8622754491017963</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5147679324894515</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4447674418604651</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7672868217054264</v>
+        <v>0.896124031007752</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6269801508961931</v>
+        <v>0.8387278402575684</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.7871586538230455</v>
+        <v>0.9019802420216461</v>
       </c>
     </row>
     <row r="5">
@@ -883,88 +883,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E5" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I5" t="n">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="J5" t="n">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="M5" t="n">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="N5" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="O5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P5" t="n">
-        <v>3556</v>
+        <v>2665</v>
       </c>
       <c r="Q5" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R5" t="n">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="W5" t="n">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y5" t="n">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="Z5" t="n">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="AA5" t="n">
-        <v>156</v>
+        <v>383</v>
       </c>
       <c r="AB5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7672868217054264</v>
+        <v>0.896124031007752</v>
       </c>
       <c r="AD5" t="n">
         <v>6450</v>

--- a/reports/corpus_wicaksono-unigram_trigram-fold-1.xlsx
+++ b/reports/corpus_wicaksono-unigram_trigram-fold-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,65 +521,60 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NPN</t>
+          <t>PRL</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>PRN</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>PRN</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>PRP</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>RP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VBI</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>VBI</t>
+          <t>VBT</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>VBT</t>
+          <t>WP</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>WP</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -640,46 +635,43 @@
         <v>0.4901960784313725</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4828897338403042</v>
+        <v>0.4801512287334593</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9807692307692307</v>
+        <v>0.8810810810810811</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8810810810810811</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9263157894736842</v>
+        <v>0.7542857142857143</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7542857142857143</v>
+        <v>0.7048872180451128</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7048872180451128</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.896124031007752</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.896124031007752</v>
+        <v>0.8487495486150711</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8174158062629144</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.9276889179627212</v>
+        <v>0.9275679142486979</v>
       </c>
     </row>
     <row r="3">
@@ -740,10 +732,10 @@
         <v>0.8912280701754386</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -755,27 +747,24 @@
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9887640449438202</v>
+        <v>0.9924812030075187</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9924812030075187</v>
+        <v>0.97911227154047</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.97911227154047</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0.896124031007752</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.896124031007752</v>
+        <v>0.9128413402461012</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8790324017184679</v>
-      </c>
-      <c r="AE3" t="n">
         <v>0.896124031007752</v>
       </c>
     </row>
@@ -834,46 +823,43 @@
         <v>0.6172839506172839</v>
       </c>
       <c r="R4" t="n">
-        <v>0.626387176325524</v>
+        <v>0.624078624078624</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0.9902912621359222</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9902912621359222</v>
+        <v>0.9367816091954023</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9367816091954023</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.819672131147541</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.896124031007752</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.896124031007752</v>
+        <v>0.8708978128733633</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8387278402575684</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.9019802420216461</v>
+        <v>0.90187823622469</v>
       </c>
     </row>
     <row r="5">
@@ -934,42 +920,39 @@
         <v>285</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="V5" t="n">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="W5" t="n">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="Y5" t="n">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="Z5" t="n">
-        <v>133</v>
+        <v>383</v>
       </c>
       <c r="AA5" t="n">
-        <v>383</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="n">
-        <v>5</v>
+        <v>0.896124031007752</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.896124031007752</v>
+        <v>6450</v>
       </c>
       <c r="AD5" t="n">
-        <v>6450</v>
-      </c>
-      <c r="AE5" t="n">
         <v>6450</v>
       </c>
     </row>
